--- a/data/Metadata.xlsx
+++ b/data/Metadata.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/I329382/Documents/Github/churn-prediction/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsund\Documents\Github\churn-prediction\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8051D2C-8AE9-4F49-A091-BD96356C2111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59391A10-27F7-4BA0-99DF-749FE1AA5AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{F5D6CA20-5455-4280-B28A-046BD8FC36DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5D6CA20-5455-4280-B28A-046BD8FC36DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>cust_id</t>
   </si>
@@ -106,12 +107,6 @@
     <t xml:space="preserve">days elapsed since purchase of policy </t>
   </si>
   <si>
-    <t>Response</t>
-  </si>
-  <si>
-    <t>annual_premium($)</t>
-  </si>
-  <si>
     <t>whether the customer renewed (1) or no (0)</t>
   </si>
   <si>
@@ -127,16 +122,16 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>str</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>category</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>annual_premium</t>
   </si>
 </sst>
 </file>
@@ -168,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -191,23 +186,214 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -218,6 +404,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE1F85A8-B1C8-4763-B1A7-D4BACCA5054B}" name="Table1" displayName="Table1" ref="A1:D13" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="A1:D13" xr:uid="{DE1F85A8-B1C8-4763-B1A7-D4BACCA5054B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{784EC7F7-505F-4843-9E53-7D433E099135}" name="Field Name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9EA8DB6A-073D-4AD6-9E0A-35CCCA5D2920}" name="Description" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3CB3A9F2-253E-4417-A7FF-B79A9527D5AF}" name="Type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{CB5862F5-234A-463C-A485-F81D54FF6F83}" name="Required" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,199 +719,203 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" customWidth="1"/>
+    <col min="2" max="2" width="56.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
+      <c r="C13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>